--- a/EsrsMetadata.xlsx
+++ b/EsrsMetadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive - UT Cloud\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16525355-A211-48E1-89AA-5161EBFB289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queries+guidelines" sheetId="1" r:id="rId1"/>
@@ -4997,7 +4997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3CA73C-85B1-4DFA-B8E5-F4472EF749AF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5079,7 +5079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257ADCF7-3EFF-4260-994E-5E5A50EF74AF}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/EsrsMetadata.xlsx
+++ b/EsrsMetadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/zxowg46_s-cloud_uni-tuebingen_de/Documents/Thesis/esg_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16525355-A211-48E1-89AA-5161EBFB289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{16525355-A211-48E1-89AA-5161EBFB289D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E82D481-783F-4D0A-B52F-303F87ED194A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queries+guidelines" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="311">
   <si>
     <t>query</t>
   </si>
@@ -610,17 +610,10 @@
     <t>Datapoints in Thesis</t>
   </si>
   <si>
-    <t>Philips 2024</t>
-  </si>
-  <si>
     <t>Continental 2024</t>
   </si>
   <si>
     <t>SBM-2 – Interests and views of stakeholders</t>
-  </si>
-  <si>
-    <t>ESG governance, strategy and policies: Strategy
-Social: Our organization, people and culture</t>
   </si>
   <si>
     <t>Interests and views of stakeholders relating to own workforce</t>
@@ -632,13 +625,6 @@
     <t>S1_A material impacts on own workforce
 S1_B material risks and opportunities arising from impacts and dependencies on own workforce
 S1_C human rights impacts, commitments and policies for the own workforce</t>
-  </si>
-  <si>
-    <t>Social: Human rights
-ESG governance, strategy and policies: Strategy
-Sustainability statement: IRO Table
-Social information: Management of key material people topics (Impacts, Risks and Opportunities)
-Social information: Human rights</t>
   </si>
   <si>
     <t>Further information on the IRO assessment in relation to the own workforce</t>
@@ -653,10 +639,6 @@
 S1_F remediate negative impacts and channels for own workforce to raise concerns</t>
   </si>
   <si>
-    <t>Double Materiality Assessment: Policy Overview 
-Social information: Policies, metrics and targets</t>
-  </si>
-  <si>
     <t>Management approaches to own workforce</t>
   </si>
   <si>
@@ -669,11 +651,6 @@
     <t>S1_D engagement</t>
   </si>
   <si>
-    <t>Social: Our organization, people and culture
-Own workforce: Workforce of the future
-Own workforce: Employee engagement</t>
-  </si>
-  <si>
     <t>Processes for engaging with own workers and workers’ representatives about impacts</t>
   </si>
   <si>
@@ -684,10 +661,6 @@
   </si>
   <si>
     <t>S1_F remediate negative impacts and channels for own workforce to raise concerns</t>
-  </si>
-  <si>
-    <t>Governance: General Business Principles (GBP)
-Governance information: Philips SpeakUp (Ethics Line)</t>
   </si>
   <si>
     <t>Processes to remediate negative impacts and channels for own workforce to raise concerns</t>
@@ -713,17 +686,10 @@
     <t>S1-5 – Targets related to managing material negative impacts, advancing positive impacts, and managing material risks and opportunities</t>
   </si>
   <si>
-    <t>Sustainability statement: Tracking our 2025 ESG program
-Social information: Policies, metrics and targets</t>
-  </si>
-  <si>
     <t>Targets related to own workforce</t>
   </si>
   <si>
     <t xml:space="preserve">S1-6 – Characteristics of the undertaking’s employees </t>
-  </si>
-  <si>
-    <t>Social statements: Workforce details</t>
   </si>
   <si>
     <t>Characteristics of the company’s employees</t>
@@ -737,15 +703,9 @@
     <t>S1-7 – Characteristics of non-employees in the undertaking’s own workforce</t>
   </si>
   <si>
-    <t>Social information: Workforce details</t>
-  </si>
-  <si>
     <t>S1-8 – Collective bargaining coverage and social dialogue</t>
   </si>
   <si>
-    <t>Workforce details: Collective bargaining coverage and social dialogue</t>
-  </si>
-  <si>
     <t>Collective bargaining coverage and social dialogue</t>
   </si>
   <si>
@@ -755,9 +715,6 @@
     <t xml:space="preserve">S1-9 – Diversity metrics </t>
   </si>
   <si>
-    <t>Social information: Diversity, Inclusion and Well-being</t>
-  </si>
-  <si>
     <t>Diversity</t>
   </si>
   <si>
@@ -765,9 +722,6 @@
   </si>
   <si>
     <t>S1-10 – Adequate wages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social information: Living Wage and Adequate Wage </t>
   </si>
   <si>
     <t>Adequate wages</t>
@@ -783,25 +737,15 @@
     <t xml:space="preserve">S1_G social protection </t>
   </si>
   <si>
-    <t xml:space="preserve">Workforce details: Social protection </t>
-  </si>
-  <si>
     <t>S1-12– Persons with disabilities</t>
   </si>
   <si>
     <t>S1-13 – Training and skills development metrics</t>
   </si>
   <si>
-    <t>Workforce of the future: Career development
-Workforce of the future: Learning</t>
-  </si>
-  <si>
     <t>S1-14 – Health and safety metrics</t>
   </si>
   <si>
-    <t xml:space="preserve">Social information: Health and Safety </t>
-  </si>
-  <si>
     <t>Occupational safety and health</t>
   </si>
   <si>
@@ -811,14 +755,7 @@
     <t>S1-15 – Work-life balance metrics</t>
   </si>
   <si>
-    <t xml:space="preserve">Social information: Diversity, Inclusion and Well-being </t>
-  </si>
-  <si>
     <t>S1-16 – Remuneration metrics (pay gap and total remuneration)</t>
-  </si>
-  <si>
-    <t>Supervisory Board: Remuneration report 2024
-Social information: Equal opportunities and equal pay</t>
   </si>
   <si>
     <t xml:space="preserve">Remuneration metrics </t>
@@ -833,9 +770,6 @@
   <si>
     <t>S1_C human rights impacts, commitments and policies for the own workforce
 S1_E diversity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Governance information: Philips SpeakUp (Ethics Line) </t>
   </si>
   <si>
     <t>Incidents, complaints and severe human rights impacts</t>
@@ -2856,12 +2790,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2887,31 +2827,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2924,13 +2843,62 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Normale 3" xfId="2" xr:uid="{9551A084-9141-429E-96D4-4742E23498B2}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <i val="0"/>
@@ -3353,1640 +3321,1626 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" customWidth="1"/>
-    <col min="2" max="2" width="7.265625" customWidth="1"/>
-    <col min="3" max="3" width="45.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="45.3984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="61.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="72.849999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="63" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12">
+        <v>15</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="125.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="12">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" ht="117" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="12">
+        <v>41</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="59.65" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F22" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="55.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="72.849999999999994" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F23" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="114" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="9">
+        <v>21</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11">
+        <v>22</v>
+      </c>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="9">
+        <v>27</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="12">
+        <v>28</v>
+      </c>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="58.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" ht="68.650000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="9">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G57" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="9">
+        <v>33</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="9">
+        <v>33</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E61" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="111.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E62" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A63" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E63" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="125.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D65" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E65" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A66" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D66" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="117" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2">
-        <v>41</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="53.65" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="117.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2">
-        <v>16</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="41.65" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="59.65" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="55.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>273</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="3">
-        <v>21</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="4">
-        <v>22</v>
-      </c>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" ht="57" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="3">
-        <v>27</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="E66" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="9">
         <v>75</v>
       </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="70.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="2">
-        <v>28</v>
-      </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="1:7" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" ht="58.9" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7" ht="68.650000000000006" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:7" ht="57.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="3">
-        <v>33</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="3">
-        <v>33</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="3">
-        <v>33</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>132</v>
-      </c>
-      <c r="B61" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="3">
-        <v>75</v>
-      </c>
-      <c r="G66" s="8"/>
+      <c r="G66" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G66" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="S1_A1"/>
-        <filter val="S1_A10"/>
-        <filter val="S1_A11"/>
-        <filter val="S1_A12"/>
-        <filter val="S1_A13"/>
-        <filter val="S1_A14"/>
-        <filter val="S1_A15"/>
-        <filter val="S1_A16"/>
-        <filter val="S1_A2"/>
-        <filter val="S1_A3"/>
-        <filter val="S1_A4"/>
-        <filter val="S1_A5"/>
-        <filter val="S1_A6"/>
-        <filter val="S1_A7"/>
-        <filter val="S1_A8"/>
-        <filter val="S1_A9"/>
+        <filter val="S1_G"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="expression" dxfId="10" priority="33">
+    <cfRule type="expression" dxfId="11" priority="33">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)),AND(COUNTIF(#REF!, F2)+COUNTIF(#REF!, F2)+COUNTIF(#REF!, F2)+COUNTIF(#REF!, F2)+COUNTIF(#REF!, F2)+COUNTIF(#REF!, F2)&gt;1,NOT(ISBLANK(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="expression" dxfId="9" priority="47">
+    <cfRule type="expression" dxfId="10" priority="47">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,$E$61:$E$65,$E$107:$E$113,$E$67:$E$105,$E$3:$E$59,$E$115:$E$168,$E$174:$E$220)),AND(COUNTIF($E$61:$E$65, F9)+COUNTIF($E$107:$E$113, F9)+COUNTIF($E$67:$E$105, F9)+COUNTIF($E$3:$E$59, F9)+COUNTIF($E$115:$E$168, F9)+COUNTIF($E$174:$E$220, F9)&gt;1,NOT(ISBLANK(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="8" priority="30">
+    <cfRule type="expression" dxfId="9" priority="30">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)),AND(COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)+COUNTIF(#REF!, F11)&gt;1,NOT(ISBLANK(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="7" priority="48">
+    <cfRule type="expression" dxfId="8" priority="48">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,$D$45:$D$51,$D$87:$D$93,$D$54:$D$85,$D$7:$D$41,$D$95:$D$148,$D$154:$D$200)),AND(COUNTIF($D$45:$D$51, F12)+COUNTIF($D$87:$D$93, F12)+COUNTIF($D$54:$D$85, F12)+COUNTIF($D$7:$D$41, F12)+COUNTIF($D$95:$D$148, F12)+COUNTIF($D$154:$D$200, F12)&gt;1,NOT(ISBLANK(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F28">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)),AND(COUNTIF(#REF!, F13)+COUNTIF(#REF!, F13)+COUNTIF(#REF!, F13)+COUNTIF(#REF!, F13)+COUNTIF(#REF!, F13)+COUNTIF(#REF!, F13)&gt;1,NOT(ISBLANK(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="5" priority="49">
+    <cfRule type="expression" dxfId="6" priority="49">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,$D$57:$D$60,$D$98:$D$104,$D$63:$D$96,$D$7:$D$53,$D$106:$D$159,$D$165:$D$211)),AND(COUNTIF($D$57:$D$60, F29)+COUNTIF($D$98:$D$104, F29)+COUNTIF($D$63:$D$96, F29)+COUNTIF($D$7:$D$53, F29)+COUNTIF($D$106:$D$159, F29)+COUNTIF($D$165:$D$211, F29)&gt;1,NOT(ISBLANK(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F48">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)),AND(COUNTIF(#REF!, F30)+COUNTIF(#REF!, F30)+COUNTIF(#REF!, F30)+COUNTIF(#REF!, F30)+COUNTIF(#REF!, F30)+COUNTIF(#REF!, F30)&gt;1,NOT(ISBLANK(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,$E$34:$E$41,$E$77:$E$83,$E$43:$E$75,$E$3:$E$32,$E$85:$E$138,$E$144:$E$190)),AND(COUNTIF($E$34:$E$41, F49)+COUNTIF($E$77:$E$83, F49)+COUNTIF($E$43:$E$75, F49)+COUNTIF($E$3:$E$32, F49)+COUNTIF($E$85:$E$138, F49)+COUNTIF($E$144:$E$190, F49)&gt;1,NOT(ISBLANK(F49))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F65">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)),AND(COUNTIF(#REF!, F50)+COUNTIF(#REF!, F50)+COUNTIF(#REF!, F50)+COUNTIF(#REF!, F50)+COUNTIF(#REF!, F50)+COUNTIF(#REF!, F50)&gt;1,NOT(ISBLANK(F50))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,#REF!)),AND(COUNTIF(#REF!, F66)&gt;1,NOT(ISBLANK(F66))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="expression" dxfId="0" priority="34">
+    <cfRule type="expression" dxfId="1" priority="34">
       <formula>IF(FALSE,_SORT(_ONEDARRAY(FALSE,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)),AND(COUNTIF(#REF!, G7)+COUNTIF(#REF!, G7)+COUNTIF(#REF!, G7)+COUNTIF(#REF!, G7)+COUNTIF(#REF!, G7)+COUNTIF(#REF!, G7)&gt;1,NOT(ISBLANK(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" location="2410" xr:uid="{EE26DA19-EB40-40C2-A0AA-1365F9595B32}"/>
-    <hyperlink ref="F2" r:id="rId2" location="2216" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2216" xr:uid="{33ED36DA-91D3-4EA0-8B17-003D5BEFFAF6}"/>
-    <hyperlink ref="F3" r:id="rId3" location="7144" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7144" xr:uid="{796FA633-CDB1-4677-8D5E-306F9A56ADA6}"/>
-    <hyperlink ref="F4" r:id="rId4" location="7144" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7144" xr:uid="{F4B72658-DB64-4D90-B542-4A9F86B3EF19}"/>
-    <hyperlink ref="F5" r:id="rId5" location="7148" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7148" xr:uid="{997C3F4B-3E0B-44A2-ABDF-6542A0D93511}"/>
-    <hyperlink ref="F6" r:id="rId6" location="7148" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7148" xr:uid="{60242507-E05C-4A80-BCC7-16EBCDA705AC}"/>
-    <hyperlink ref="F7" r:id="rId7" location="7152" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7152" xr:uid="{8BB556DB-77EA-4943-8A1F-E4EE53F6FF73}"/>
-    <hyperlink ref="G7" r:id="rId8" location="2483" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2483" xr:uid="{3ECFC745-D744-4C65-8BC3-EF1FB9BC2F73}"/>
-    <hyperlink ref="G8" r:id="rId9" location="2412" xr:uid="{D01A3D4F-9B97-44BD-AFE6-FDC2116D3479}"/>
-    <hyperlink ref="F8" r:id="rId10" location="2228" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2228" xr:uid="{3D3FC0BA-0B86-47FE-8156-B306448D4203}"/>
-    <hyperlink ref="F9" r:id="rId11" location="2232" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2232" xr:uid="{CD660D04-956E-41BE-8BFE-137A4EA7CC78}"/>
-    <hyperlink ref="F10" r:id="rId12" location="2232" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2232" xr:uid="{750FAA51-B5E9-4E26-9CCC-54A4E114C3B7}"/>
-    <hyperlink ref="G11" r:id="rId13" location="2482" xr:uid="{66D8D28B-ADF1-4F51-BAF5-B36A95DBDE80}"/>
-    <hyperlink ref="F11" r:id="rId14" location="7229" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7229" xr:uid="{7C5BFA22-8F48-4FD8-A117-7B0F6336F93F}"/>
-    <hyperlink ref="G12" r:id="rId15" location="2476" xr:uid="{AF5C75A4-79C0-4310-9FD5-899F2DEB70DB}"/>
-    <hyperlink ref="F12" r:id="rId16" location="7235" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7235" xr:uid="{751AD12C-6A48-4564-82DE-177F6D02E2C5}"/>
-    <hyperlink ref="G13" r:id="rId17" location="2482" xr:uid="{1BCA1394-2738-4560-854A-99CDC72CF130}"/>
-    <hyperlink ref="F13" r:id="rId18" location="7233" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7233" xr:uid="{5ED8AC13-898F-40B4-A8EB-A80AEAFA76A3}"/>
-    <hyperlink ref="G14" r:id="rId19" location="2472" xr:uid="{C7B48CEB-DC29-41F0-B6F4-4D72357ECAA1}"/>
-    <hyperlink ref="F14" r:id="rId20" location="2275" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2275" xr:uid="{6191DD85-166D-4386-A3BD-991B64A50042}"/>
-    <hyperlink ref="G16" r:id="rId21" location="2475" xr:uid="{B15D0D0B-2180-4E7E-A109-127DF000839F}"/>
-    <hyperlink ref="F16" r:id="rId22" location="2279" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2279" xr:uid="{6B34DCA7-EA94-4202-9159-4FF4108E75A1}"/>
-    <hyperlink ref="F17" r:id="rId23" location="2281" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2281" xr:uid="{B3BAFA63-81E2-4A87-8967-82A511392198}"/>
-    <hyperlink ref="G18" r:id="rId24" location="2484" xr:uid="{B16B4A07-EBAF-4A0E-9CAF-0C71319F89F2}"/>
-    <hyperlink ref="F18" r:id="rId25" location="7150" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7150" xr:uid="{B60FCC93-5EA1-4B20-8FB9-4ADDB00F67CA}"/>
-    <hyperlink ref="G19" r:id="rId26" location="2413" xr:uid="{C5942EEB-7CD9-426D-BA2D-C4E811F46C5B}"/>
-    <hyperlink ref="F19" r:id="rId27" location="2229" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2229" xr:uid="{A4BA89DD-8C11-4D90-ACB7-A2B6F4DD82DF}"/>
-    <hyperlink ref="G20" r:id="rId28" location="2484" xr:uid="{F07EA623-4B2A-46BE-BC60-C415CB44E671}"/>
-    <hyperlink ref="F20" r:id="rId29" location="7239" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7239" xr:uid="{5B95171C-1A2C-4F6C-9B22-1045C4FCB927}"/>
-    <hyperlink ref="G21" r:id="rId30" location="2484" xr:uid="{3238430D-6C95-424B-8F33-99260D211DD6}"/>
-    <hyperlink ref="F21" r:id="rId31" location="7239" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7239" xr:uid="{0B7AA8DC-9ED8-4080-8051-C9B5B7D6315E}"/>
-    <hyperlink ref="F15" r:id="rId32" location="7241" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7241" xr:uid="{35181586-8EC4-4A3B-A3AA-C31475A476F1}"/>
-    <hyperlink ref="F22" r:id="rId33" location="7156" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7156" xr:uid="{45F82343-F194-43E5-8152-48B8EBE469D7}"/>
-    <hyperlink ref="F23" r:id="rId34" location="7158" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7158" xr:uid="{B611B66E-B28D-4B93-B41C-55136299B8EA}"/>
-    <hyperlink ref="F24" r:id="rId35" location="7162" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7162" xr:uid="{CC276792-88F4-4459-AC42-977D382DC227}"/>
-    <hyperlink ref="F25" r:id="rId36" location="7164" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7164" xr:uid="{6EDE9FC1-375F-4777-B416-B2C47646B6BC}"/>
-    <hyperlink ref="F26" r:id="rId37" location="2233" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2233" xr:uid="{5429A49C-2723-4D14-9764-F74C964BF561}"/>
-    <hyperlink ref="F27" r:id="rId38" location="7172" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7172" xr:uid="{7673C33B-FF3B-4B49-995A-4EB20F34E9C2}"/>
-    <hyperlink ref="G28" r:id="rId39" location="2416" xr:uid="{C3903624-CA45-4BDA-94CF-E7B3D43BAE50}"/>
-    <hyperlink ref="F28" r:id="rId40" location="2237" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2237" xr:uid="{F39EE96A-888A-404D-92AE-2ECD38EA0A56}"/>
-    <hyperlink ref="F29" r:id="rId41" location="2238" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2238" xr:uid="{6D656BED-2A2B-4B45-A9FE-DCFF621649E2}"/>
-    <hyperlink ref="G30" r:id="rId42" location="2436" xr:uid="{24EEEEF2-5BB7-45A1-892F-535DB42E882F}"/>
-    <hyperlink ref="F30" r:id="rId43" location="7199" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7199" xr:uid="{B1D03F66-590E-429F-923E-D48861D3F9CD}"/>
-    <hyperlink ref="G31" r:id="rId44" location="2577" xr:uid="{B8E1935E-B740-4358-9538-9520E690E668}"/>
-    <hyperlink ref="G32" r:id="rId45" location="2577" xr:uid="{1EF58198-B3E8-4AF9-9B07-C350ABEDE49D}"/>
-    <hyperlink ref="F31" r:id="rId46" location="7413" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7413" xr:uid="{35C2B7AB-559E-4E98-8490-105DE3F85EE3}"/>
-    <hyperlink ref="F32" r:id="rId47" location="7415" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7415" xr:uid="{C9979DC0-F090-45A0-9589-A488184699A9}"/>
-    <hyperlink ref="F33" r:id="rId48" location="7174" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7174" xr:uid="{2D2D122C-5D91-4C09-96E2-4573AEC663EC}"/>
-    <hyperlink ref="G34" r:id="rId49" location="2437" xr:uid="{88177BBB-EE0E-4C4B-B3DD-EFA39846496D}"/>
-    <hyperlink ref="G36" r:id="rId50" location="2431" xr:uid="{E2D9F256-998D-4DA6-8AA7-0358D0CCE2AA}"/>
-    <hyperlink ref="G39" r:id="rId51" location="2430" display="AR 18-19" xr:uid="{5DD888DD-8D02-44D8-8A2D-6AAEF5652936}"/>
-    <hyperlink ref="F34" r:id="rId52" location="2247" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2247" xr:uid="{95938490-04A9-40F5-B272-5A84761C5FDC}"/>
-    <hyperlink ref="F35" r:id="rId53" location="7193" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7193" xr:uid="{F544CE13-5DE9-40C1-A5D8-4F6B3621990D}"/>
-    <hyperlink ref="F36" r:id="rId54" location="7195" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7195" xr:uid="{1203C62D-6256-4A3D-A9C3-BEE8793F3350}"/>
-    <hyperlink ref="F39" r:id="rId55" location="7197" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7197" xr:uid="{65A9D8C3-5A6E-4584-85D2-1F465F080BC5}"/>
-    <hyperlink ref="F40" r:id="rId56" location="7201" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7201" xr:uid="{F7F1DCFA-5402-4850-B9BE-0C0786990727}"/>
-    <hyperlink ref="F41" r:id="rId57" location="2253" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2253" xr:uid="{78BC955E-9370-40D9-86CB-E54BD1F381E1}"/>
-    <hyperlink ref="F42" r:id="rId58" location="7256" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7256" xr:uid="{44C706D8-C246-4FE8-B160-1E8AE6B4F6E5}"/>
-    <hyperlink ref="F43" r:id="rId59" location="7258" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7258" xr:uid="{9B7CBCA5-741B-4BA4-A854-9F1E9BED3784}"/>
-    <hyperlink ref="F44" r:id="rId60" location="7260" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7260" xr:uid="{4A76FFA6-D0FC-4E57-A5B3-74C69E0E81B6}"/>
-    <hyperlink ref="G37" r:id="rId61" location="2431" xr:uid="{B2FA7BD1-4575-49EC-8978-02302A3E67EF}"/>
-    <hyperlink ref="F37" r:id="rId62" location="7195" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7195" xr:uid="{56D86DC5-96A4-4853-AB49-E5473E01A5E5}"/>
-    <hyperlink ref="G38" r:id="rId63" location="2431" xr:uid="{085EF04C-E3A1-4795-AF78-B08EFAD67C75}"/>
-    <hyperlink ref="F38" r:id="rId64" location="7195" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7195" xr:uid="{1F02A900-377C-4E47-BB99-75F63CDB8536}"/>
-    <hyperlink ref="G46" r:id="rId65" location="2419" xr:uid="{A9A8F971-1409-488C-85D6-0B9348BF6645}"/>
-    <hyperlink ref="F45" r:id="rId66" location="7182" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7182" xr:uid="{151D8906-0EA8-4C53-918A-2FB827693DAD}"/>
-    <hyperlink ref="F46" r:id="rId67" location="7184" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7184" xr:uid="{6AD2C771-3F91-472A-A299-1928634FB01A}"/>
-    <hyperlink ref="F47" r:id="rId68" location="7186" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7186" xr:uid="{2C8015A3-EF44-4140-9780-87DBB3B5522C}"/>
-    <hyperlink ref="F48" r:id="rId69" location="7188" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7188" xr:uid="{B27F0914-9573-4243-9ECC-DAC26EC95749}"/>
-    <hyperlink ref="G51" r:id="rId70" location="2453" xr:uid="{AB8464E7-6626-4F93-8C92-7C1CE430841A}"/>
-    <hyperlink ref="F50" r:id="rId71" location="7176" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7176" xr:uid="{8F23C659-A1DF-4755-9D0E-7B1569E3E9AB}"/>
-    <hyperlink ref="F51" r:id="rId72" location="7208" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7208" xr:uid="{766786E6-6CBC-4105-B449-E8CD8DE721AE}"/>
-    <hyperlink ref="G52" r:id="rId73" location="2454" xr:uid="{F01DF2F7-E952-4556-AEE9-84519D2BDCCF}"/>
-    <hyperlink ref="F52" r:id="rId74" location="7210" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7210" xr:uid="{52698C42-9914-4B19-8462-703072E6113F}"/>
-    <hyperlink ref="F53" r:id="rId75" location="7212" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7212" xr:uid="{78A150D4-3663-443B-B648-8888BB695446}"/>
-    <hyperlink ref="G55" r:id="rId76" location="2458" xr:uid="{9CE81150-A69C-46CE-B145-C9380B9517F6}"/>
-    <hyperlink ref="F54" r:id="rId77" location="7214" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7214" xr:uid="{FCC5340A-1F75-4358-90F8-8880E0B5F07B}"/>
-    <hyperlink ref="F55" r:id="rId78" location="7216" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7216" xr:uid="{9A242DE5-43D6-4928-A132-0271EC2BD7DC}"/>
-    <hyperlink ref="G57" r:id="rId79" location="2457" xr:uid="{11B70BEF-E500-4A8B-A0A3-C6742D5A2983}"/>
-    <hyperlink ref="F57" r:id="rId80" location="2263" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2263" xr:uid="{F367BFBB-27A2-4F8C-A7F7-79A518649522}"/>
-    <hyperlink ref="F60" r:id="rId81" location="7231" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7231" xr:uid="{75CF0CC3-5F2D-4757-95FD-49DE34956D5D}"/>
-    <hyperlink ref="G56" r:id="rId82" location="2458" xr:uid="{2CE25F36-29F9-403C-A998-86C93615E7CB}"/>
-    <hyperlink ref="F56" r:id="rId83" location="7216" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7216" xr:uid="{A61D92B3-A0AE-4329-87AB-0D8B8F15584D}"/>
-    <hyperlink ref="G58" r:id="rId84" location="2457" xr:uid="{C6B6A7F7-8783-4859-89A4-AFE2B7DA377B}"/>
-    <hyperlink ref="F58" r:id="rId85" location="2263" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2263" xr:uid="{EB3019AE-D454-4906-B4A5-A54A46A2ECA6}"/>
-    <hyperlink ref="G59" r:id="rId86" location="2457" xr:uid="{A1216AEC-4B32-4FBA-8D4B-38B71B228CE8}"/>
-    <hyperlink ref="F59" r:id="rId87" location="2263" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2263" xr:uid="{2CB01774-BEB8-4484-96AD-90D674F7107F}"/>
-    <hyperlink ref="G61:G65" r:id="rId88" location="2531" display="AR 75" xr:uid="{EB2BB421-00E8-42C2-A937-23AFD489A77E}"/>
-    <hyperlink ref="F61" r:id="rId89" location="7339" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7339" xr:uid="{EAF9D4CD-F1EF-46BF-AAC7-EE874E2B802B}"/>
-    <hyperlink ref="F62" r:id="rId90" location="7341" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7341" xr:uid="{08F62CCB-0619-428F-82CE-9105FA5FDA89}"/>
-    <hyperlink ref="F63" r:id="rId91" location="7343" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7343" xr:uid="{295627F9-3B70-4772-9271-10D8A8CC642C}"/>
-    <hyperlink ref="F64" r:id="rId92" location="7345" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7345" xr:uid="{DA9AD600-743F-4284-8F38-D6DE4DB58E52}"/>
-    <hyperlink ref="F65" r:id="rId93" location="7347" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7347" xr:uid="{85105104-0059-4E16-8BD6-EEF13A63C17F}"/>
-    <hyperlink ref="F66" r:id="rId94" location="2349" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2349" xr:uid="{B3DC2EB3-5377-4AAE-9C95-3CB09D102A06}"/>
-    <hyperlink ref="F49" r:id="rId95" location="7408" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7408" xr:uid="{CFD0F424-53C6-4E44-9894-52A4E25D5EE9}"/>
-    <hyperlink ref="G49" r:id="rId96" location="2577" xr:uid="{B9E5B34A-F74F-455E-B8BE-63F1B3EBAAF7}"/>
+    <hyperlink ref="F2" r:id="rId1" location="2216" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2216" xr:uid="{33ED36DA-91D3-4EA0-8B17-003D5BEFFAF6}"/>
+    <hyperlink ref="F3" r:id="rId2" location="7144" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7144" xr:uid="{796FA633-CDB1-4677-8D5E-306F9A56ADA6}"/>
+    <hyperlink ref="F4" r:id="rId3" location="7144" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7144" xr:uid="{F4B72658-DB64-4D90-B542-4A9F86B3EF19}"/>
+    <hyperlink ref="F5" r:id="rId4" location="7148" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7148" xr:uid="{997C3F4B-3E0B-44A2-ABDF-6542A0D93511}"/>
+    <hyperlink ref="F6" r:id="rId5" location="7148" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7148" xr:uid="{60242507-E05C-4A80-BCC7-16EBCDA705AC}"/>
+    <hyperlink ref="F7" r:id="rId6" location="7152" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7152" xr:uid="{8BB556DB-77EA-4943-8A1F-E4EE53F6FF73}"/>
+    <hyperlink ref="G7" r:id="rId7" location="2483" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2483" xr:uid="{3ECFC745-D744-4C65-8BC3-EF1FB9BC2F73}"/>
+    <hyperlink ref="G8" r:id="rId8" location="2412" xr:uid="{D01A3D4F-9B97-44BD-AFE6-FDC2116D3479}"/>
+    <hyperlink ref="F8" r:id="rId9" location="2228" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2228" xr:uid="{3D3FC0BA-0B86-47FE-8156-B306448D4203}"/>
+    <hyperlink ref="F9" r:id="rId10" location="2232" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2232" xr:uid="{CD660D04-956E-41BE-8BFE-137A4EA7CC78}"/>
+    <hyperlink ref="F10" r:id="rId11" location="2232" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2232" xr:uid="{750FAA51-B5E9-4E26-9CCC-54A4E114C3B7}"/>
+    <hyperlink ref="G11" r:id="rId12" location="2482" xr:uid="{66D8D28B-ADF1-4F51-BAF5-B36A95DBDE80}"/>
+    <hyperlink ref="F11" r:id="rId13" location="7229" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7229" xr:uid="{7C5BFA22-8F48-4FD8-A117-7B0F6336F93F}"/>
+    <hyperlink ref="G12" r:id="rId14" location="2476" xr:uid="{AF5C75A4-79C0-4310-9FD5-899F2DEB70DB}"/>
+    <hyperlink ref="F12" r:id="rId15" location="7235" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7235" xr:uid="{751AD12C-6A48-4564-82DE-177F6D02E2C5}"/>
+    <hyperlink ref="G13" r:id="rId16" location="2482" xr:uid="{1BCA1394-2738-4560-854A-99CDC72CF130}"/>
+    <hyperlink ref="F13" r:id="rId17" location="7233" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7233" xr:uid="{5ED8AC13-898F-40B4-A8EB-A80AEAFA76A3}"/>
+    <hyperlink ref="G14" r:id="rId18" location="2472" xr:uid="{C7B48CEB-DC29-41F0-B6F4-4D72357ECAA1}"/>
+    <hyperlink ref="F14" r:id="rId19" location="2275" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2275" xr:uid="{6191DD85-166D-4386-A3BD-991B64A50042}"/>
+    <hyperlink ref="G16" r:id="rId20" location="2475" xr:uid="{B15D0D0B-2180-4E7E-A109-127DF000839F}"/>
+    <hyperlink ref="F16" r:id="rId21" location="2279" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2279" xr:uid="{6B34DCA7-EA94-4202-9159-4FF4108E75A1}"/>
+    <hyperlink ref="F17" r:id="rId22" location="2281" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2281" xr:uid="{B3BAFA63-81E2-4A87-8967-82A511392198}"/>
+    <hyperlink ref="G18" r:id="rId23" location="2484" xr:uid="{B16B4A07-EBAF-4A0E-9CAF-0C71319F89F2}"/>
+    <hyperlink ref="F18" r:id="rId24" location="7150" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7150" xr:uid="{B60FCC93-5EA1-4B20-8FB9-4ADDB00F67CA}"/>
+    <hyperlink ref="G19" r:id="rId25" location="2413" xr:uid="{C5942EEB-7CD9-426D-BA2D-C4E811F46C5B}"/>
+    <hyperlink ref="F19" r:id="rId26" location="2229" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2229" xr:uid="{A4BA89DD-8C11-4D90-ACB7-A2B6F4DD82DF}"/>
+    <hyperlink ref="G20" r:id="rId27" location="2484" xr:uid="{F07EA623-4B2A-46BE-BC60-C415CB44E671}"/>
+    <hyperlink ref="F20" r:id="rId28" location="7239" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7239" xr:uid="{5B95171C-1A2C-4F6C-9B22-1045C4FCB927}"/>
+    <hyperlink ref="G21" r:id="rId29" location="2484" xr:uid="{3238430D-6C95-424B-8F33-99260D211DD6}"/>
+    <hyperlink ref="F21" r:id="rId30" location="7239" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7239" xr:uid="{0B7AA8DC-9ED8-4080-8051-C9B5B7D6315E}"/>
+    <hyperlink ref="F15" r:id="rId31" location="7241" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7241" xr:uid="{35181586-8EC4-4A3B-A3AA-C31475A476F1}"/>
+    <hyperlink ref="F22" r:id="rId32" location="7156" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7156" xr:uid="{45F82343-F194-43E5-8152-48B8EBE469D7}"/>
+    <hyperlink ref="F23" r:id="rId33" location="7158" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7158" xr:uid="{B611B66E-B28D-4B93-B41C-55136299B8EA}"/>
+    <hyperlink ref="F24" r:id="rId34" location="7162" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7162" xr:uid="{CC276792-88F4-4459-AC42-977D382DC227}"/>
+    <hyperlink ref="F25" r:id="rId35" location="7164" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7164" xr:uid="{6EDE9FC1-375F-4777-B416-B2C47646B6BC}"/>
+    <hyperlink ref="F26" r:id="rId36" location="2233" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2233" xr:uid="{5429A49C-2723-4D14-9764-F74C964BF561}"/>
+    <hyperlink ref="F27" r:id="rId37" location="7172" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7172" xr:uid="{7673C33B-FF3B-4B49-995A-4EB20F34E9C2}"/>
+    <hyperlink ref="G28" r:id="rId38" location="2416" xr:uid="{C3903624-CA45-4BDA-94CF-E7B3D43BAE50}"/>
+    <hyperlink ref="F28" r:id="rId39" location="2237" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2237" xr:uid="{F39EE96A-888A-404D-92AE-2ECD38EA0A56}"/>
+    <hyperlink ref="F29" r:id="rId40" location="2238" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2238" xr:uid="{6D656BED-2A2B-4B45-A9FE-DCFF621649E2}"/>
+    <hyperlink ref="G30" r:id="rId41" location="2436" xr:uid="{24EEEEF2-5BB7-45A1-892F-535DB42E882F}"/>
+    <hyperlink ref="F30" r:id="rId42" location="7199" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7199" xr:uid="{B1D03F66-590E-429F-923E-D48861D3F9CD}"/>
+    <hyperlink ref="G31" r:id="rId43" location="2577" xr:uid="{B8E1935E-B740-4358-9538-9520E690E668}"/>
+    <hyperlink ref="G32" r:id="rId44" location="2577" xr:uid="{1EF58198-B3E8-4AF9-9B07-C350ABEDE49D}"/>
+    <hyperlink ref="F31" r:id="rId45" location="7413" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7413" xr:uid="{35C2B7AB-559E-4E98-8490-105DE3F85EE3}"/>
+    <hyperlink ref="F32" r:id="rId46" location="7415" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7415" xr:uid="{C9979DC0-F090-45A0-9589-A488184699A9}"/>
+    <hyperlink ref="F33" r:id="rId47" location="7174" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7174" xr:uid="{2D2D122C-5D91-4C09-96E2-4573AEC663EC}"/>
+    <hyperlink ref="G34" r:id="rId48" location="2437" xr:uid="{88177BBB-EE0E-4C4B-B3DD-EFA39846496D}"/>
+    <hyperlink ref="G36" r:id="rId49" location="2431" xr:uid="{E2D9F256-998D-4DA6-8AA7-0358D0CCE2AA}"/>
+    <hyperlink ref="G39" r:id="rId50" location="2430" display="AR 18-19" xr:uid="{5DD888DD-8D02-44D8-8A2D-6AAEF5652936}"/>
+    <hyperlink ref="F34" r:id="rId51" location="2247" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2247" xr:uid="{95938490-04A9-40F5-B272-5A84761C5FDC}"/>
+    <hyperlink ref="F35" r:id="rId52" location="7193" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7193" xr:uid="{F544CE13-5DE9-40C1-A5D8-4F6B3621990D}"/>
+    <hyperlink ref="F36" r:id="rId53" location="7195" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7195" xr:uid="{1203C62D-6256-4A3D-A9C3-BEE8793F3350}"/>
+    <hyperlink ref="F39" r:id="rId54" location="7197" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7197" xr:uid="{65A9D8C3-5A6E-4584-85D2-1F465F080BC5}"/>
+    <hyperlink ref="F40" r:id="rId55" location="7201" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7201" xr:uid="{F7F1DCFA-5402-4850-B9BE-0C0786990727}"/>
+    <hyperlink ref="F41" r:id="rId56" location="2253" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2253" xr:uid="{78BC955E-9370-40D9-86CB-E54BD1F381E1}"/>
+    <hyperlink ref="F42" r:id="rId57" location="7256" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7256" xr:uid="{44C706D8-C246-4FE8-B160-1E8AE6B4F6E5}"/>
+    <hyperlink ref="F43" r:id="rId58" location="7258" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7258" xr:uid="{9B7CBCA5-741B-4BA4-A854-9F1E9BED3784}"/>
+    <hyperlink ref="F44" r:id="rId59" location="7260" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7260" xr:uid="{4A76FFA6-D0FC-4E57-A5B3-74C69E0E81B6}"/>
+    <hyperlink ref="G37" r:id="rId60" location="2431" xr:uid="{B2FA7BD1-4575-49EC-8978-02302A3E67EF}"/>
+    <hyperlink ref="F37" r:id="rId61" location="7195" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7195" xr:uid="{56D86DC5-96A4-4853-AB49-E5473E01A5E5}"/>
+    <hyperlink ref="G38" r:id="rId62" location="2431" xr:uid="{085EF04C-E3A1-4795-AF78-B08EFAD67C75}"/>
+    <hyperlink ref="F38" r:id="rId63" location="7195" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7195" xr:uid="{1F02A900-377C-4E47-BB99-75F63CDB8536}"/>
+    <hyperlink ref="G46" r:id="rId64" location="2419" xr:uid="{A9A8F971-1409-488C-85D6-0B9348BF6645}"/>
+    <hyperlink ref="F45" r:id="rId65" location="7182" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7182" xr:uid="{151D8906-0EA8-4C53-918A-2FB827693DAD}"/>
+    <hyperlink ref="F46" r:id="rId66" location="7184" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7184" xr:uid="{6AD2C771-3F91-472A-A299-1928634FB01A}"/>
+    <hyperlink ref="F47" r:id="rId67" location="7186" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7186" xr:uid="{2C8015A3-EF44-4140-9780-87DBB3B5522C}"/>
+    <hyperlink ref="F48" r:id="rId68" location="7188" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7188" xr:uid="{B27F0914-9573-4243-9ECC-DAC26EC95749}"/>
+    <hyperlink ref="G51" r:id="rId69" location="2453" xr:uid="{AB8464E7-6626-4F93-8C92-7C1CE430841A}"/>
+    <hyperlink ref="F50" r:id="rId70" location="7176" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7176" xr:uid="{8F23C659-A1DF-4755-9D0E-7B1569E3E9AB}"/>
+    <hyperlink ref="F51" r:id="rId71" location="7208" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7208" xr:uid="{766786E6-6CBC-4105-B449-E8CD8DE721AE}"/>
+    <hyperlink ref="G52" r:id="rId72" location="2454" xr:uid="{F01DF2F7-E952-4556-AEE9-84519D2BDCCF}"/>
+    <hyperlink ref="F52" r:id="rId73" location="7210" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7210" xr:uid="{52698C42-9914-4B19-8462-703072E6113F}"/>
+    <hyperlink ref="F53" r:id="rId74" location="7212" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7212" xr:uid="{78A150D4-3663-443B-B648-8888BB695446}"/>
+    <hyperlink ref="G55" r:id="rId75" location="2458" xr:uid="{9CE81150-A69C-46CE-B145-C9380B9517F6}"/>
+    <hyperlink ref="F54" r:id="rId76" location="7214" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7214" xr:uid="{FCC5340A-1F75-4358-90F8-8880E0B5F07B}"/>
+    <hyperlink ref="F55" r:id="rId77" location="7216" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7216" xr:uid="{9A242DE5-43D6-4928-A132-0271EC2BD7DC}"/>
+    <hyperlink ref="G57" r:id="rId78" location="2457" xr:uid="{11B70BEF-E500-4A8B-A0A3-C6742D5A2983}"/>
+    <hyperlink ref="F57" r:id="rId79" location="2263" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2263" xr:uid="{F367BFBB-27A2-4F8C-A7F7-79A518649522}"/>
+    <hyperlink ref="F60" r:id="rId80" location="7231" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7231" xr:uid="{75CF0CC3-5F2D-4757-95FD-49DE34956D5D}"/>
+    <hyperlink ref="G56" r:id="rId81" location="2458" xr:uid="{2CE25F36-29F9-403C-A998-86C93615E7CB}"/>
+    <hyperlink ref="F56" r:id="rId82" location="7216" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7216" xr:uid="{A61D92B3-A0AE-4329-87AB-0D8B8F15584D}"/>
+    <hyperlink ref="G58" r:id="rId83" location="2457" xr:uid="{C6B6A7F7-8783-4859-89A4-AFE2B7DA377B}"/>
+    <hyperlink ref="F58" r:id="rId84" location="2263" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2263" xr:uid="{EB3019AE-D454-4906-B4A5-A54A46A2ECA6}"/>
+    <hyperlink ref="G59" r:id="rId85" location="2457" xr:uid="{A1216AEC-4B32-4FBA-8D4B-38B71B228CE8}"/>
+    <hyperlink ref="F59" r:id="rId86" location="2263" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2263" xr:uid="{2CB01774-BEB8-4484-96AD-90D674F7107F}"/>
+    <hyperlink ref="G61:G65" r:id="rId87" location="2531" display="AR 75" xr:uid="{EB2BB421-00E8-42C2-A937-23AFD489A77E}"/>
+    <hyperlink ref="F61" r:id="rId88" location="7339" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7339" xr:uid="{EAF9D4CD-F1EF-46BF-AAC7-EE874E2B802B}"/>
+    <hyperlink ref="F62" r:id="rId89" location="7341" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7341" xr:uid="{08F62CCB-0619-428F-82CE-9105FA5FDA89}"/>
+    <hyperlink ref="F63" r:id="rId90" location="7343" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7343" xr:uid="{295627F9-3B70-4772-9271-10D8A8CC642C}"/>
+    <hyperlink ref="F64" r:id="rId91" location="7345" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7345" xr:uid="{DA9AD600-743F-4284-8F38-D6DE4DB58E52}"/>
+    <hyperlink ref="F65" r:id="rId92" location="7347" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7347" xr:uid="{85105104-0059-4E16-8BD6-EEF13A63C17F}"/>
+    <hyperlink ref="F66" r:id="rId93" location="2349" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 2349" xr:uid="{B3DC2EB3-5377-4AAE-9C95-3CB09D102A06}"/>
+    <hyperlink ref="F49" r:id="rId94" location="7408" display="https://xbrl.efrag.org/e-esrs/esrs-set1-2023.html - 7408" xr:uid="{CFD0F424-53C6-4E44-9894-52A4E25D5EE9}"/>
+    <hyperlink ref="G49" r:id="rId95" location="2577" xr:uid="{B9E5B34A-F74F-455E-B8BE-63F1B3EBAAF7}"/>
+    <hyperlink ref="G2" r:id="rId96" location="2410" xr:uid="{EE26DA19-EB40-40C2-A0AA-1365F9595B32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
@@ -4997,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3CA73C-85B1-4DFA-B8E5-F4472EF749AF}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5011,7 +4965,7 @@
         <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -5051,7 +5005,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
@@ -5077,293 +5031,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257ADCF7-3EFF-4260-994E-5E5A50EF74AF}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="28.73046875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="37.3984375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.06640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29.9296875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="13"/>
+    <col min="1" max="1" width="33.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.73046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.06640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.9296875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="11" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
+      <c r="B7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="11" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+      <c r="D8" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="11" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C11" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D11" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D12" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E9" s="11" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="B14" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="11" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C17" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D17" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E12" s="11" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C19" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D19" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="11" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="B20" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C20" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D20" s="4" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
